--- a/Chart01.xlsx
+++ b/Chart01.xlsx
@@ -8,13 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASDC44\Desktop\Github\Data-Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAE95B9-9F2A-4D96-AFF5-52C734D16568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9D8F5F-9534-4897-9DFB-B0C4EF7F68D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{115F3E0A-E20F-4364-898D-238A3558042D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$73:$A$76</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$72</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$73:$B$76</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$73:$A$76</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$72</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$73:$B$76</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Subject</t>
   </si>
@@ -74,18 +82,96 @@
   <si>
     <t>DA_04</t>
   </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Attendance (%)</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Sleep</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>College</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Data Analytics</t>
+  </si>
+  <si>
+    <t>Full Stack</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Marks Range</t>
+  </si>
+  <si>
+    <t>0–40</t>
+  </si>
+  <si>
+    <t>41–60</t>
+  </si>
+  <si>
+    <t>61–80</t>
+  </si>
+  <si>
+    <t>81–100</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFF0F6FC"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -153,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -171,6 +257,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -776,6 +871,893 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Attendance (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$32:$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$32:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E41E-4878-9926-1F66722C68A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="279600944"/>
+        <c:axId val="279602384"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="279600944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="279602384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="279602384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="279600944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$48:$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Study</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sleep</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mobile</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>College</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Others</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$48:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9885-4E46-B45D-84E6EB6E9A5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$62:$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Data Analytics</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Full Stack</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Python</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Others</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$62:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1206-4A9B-8AB7-26CC8E5B8104}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="75"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{33E98007-0190-42E1-B3F9-42749800A45A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:v>Students</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -856,6 +1838,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1860,6 +3002,2068 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1936,6 +5140,192 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBB3910D-8CDD-1F81-381F-9B63589FA551}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D296D242-718E-B40C-5075-3CBBEEAF305A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00E758E6-1D71-244A-3637-C353C71A43DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>576262</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="9" name="Chart 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BF52383-397A-6751-C250-8C56FCD291D4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2166937" y="16006762"/>
+              <a:ext cx="4319588" cy="2481263"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2238,10 +5628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DA2FD8-D435-4D9D-ABF0-3B96E8733E95}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="M78" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2340,6 +5730,186 @@
         <v>22</v>
       </c>
     </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" s="8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" s="9">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64" s="8">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B75" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76" s="6">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
